--- a/supporting/detail requirement-build guide.xlsx
+++ b/supporting/detail requirement-build guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rich/Documents/2022-2023/applications/shopping/supporting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717FF0EF-7CEC-3B49-B3E2-E25D26FE1B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC1335A-A256-E741-9360-F1E72CF0925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28420" windowHeight="16940" activeTab="1" xr2:uid="{EAB115AF-2F91-E144-A4E2-A99FF70999C5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Develop the pantry inventory feature:</t>
   </si>
@@ -705,6 +705,22 @@
   driver: sqlite3.Database
 });
 module.exports = dbPromise;</t>
+  </si>
+  <si>
+    <t>This may be buggy as barcodes aren't coded as unique, maybe they need be?</t>
+  </si>
+  <si>
+    <t>Comments/Questions/Unknowns</t>
+  </si>
+  <si>
+    <t>// item dao code:
+async function retrieveItemByBarcode(barcode) {
+  const db = await dbPromise;
+  const item = db.get(SQL`
+  SELECT * FROM items 
+  WHERE barcode = ${barcode};`);
+  return item;
+};</t>
   </si>
 </sst>
 </file>
@@ -1811,10 +1827,10 @@
   <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1832,7 +1848,7 @@
     <col min="12" max="16384" width="30.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
@@ -1849,7 +1865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>26</v>
       </c>
@@ -1873,8 +1889,11 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="72"/>
-    </row>
-    <row r="3" spans="1:11" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="74">
         <v>3</v>
       </c>
@@ -1893,8 +1912,9 @@
       <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="1:12" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="29"/>
       <c r="C4" s="11"/>
@@ -1907,7 +1927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="29"/>
       <c r="C5" s="11"/>
@@ -1920,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
       <c r="B6" s="29"/>
       <c r="C6" s="11"/>
@@ -1933,7 +1953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="29"/>
       <c r="C7" s="11"/>
@@ -1946,7 +1966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" s="29"/>
       <c r="C8" s="11"/>
@@ -1959,7 +1979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="29"/>
       <c r="C9" s="11"/>
@@ -1972,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="29"/>
       <c r="C10" s="12"/>
@@ -1985,7 +2005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="29"/>
       <c r="C11" s="10">
@@ -2001,7 +2021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="29"/>
       <c r="C12" s="11"/>
@@ -2014,7 +2034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="29"/>
       <c r="C13" s="12"/>
@@ -2027,7 +2047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="29"/>
       <c r="C14" s="10">
@@ -2043,7 +2063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="29"/>
       <c r="C15" s="11"/>
@@ -2056,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="29"/>
       <c r="C16" s="11"/>
@@ -2121,7 +2141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="73">
         <v>2</v>
       </c>
@@ -2140,8 +2160,9 @@
       <c r="F21" s="38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="76"/>
+    </row>
+    <row r="22" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="73">
         <v>2</v>
       </c>
@@ -2156,8 +2177,9 @@
       <c r="F22" s="38" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="76"/>
+    </row>
+    <row r="23" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="73">
         <v>2</v>
       </c>
@@ -2172,6 +2194,7 @@
       <c r="F23" s="38" t="s">
         <v>32</v>
       </c>
+      <c r="K23" s="76"/>
     </row>
     <row r="24" spans="1:25" ht="149" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="73">
@@ -2194,7 +2217,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="73">
         <v>2</v>
       </c>
@@ -2209,7 +2232,12 @@
       <c r="F25" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="76"/>
+      <c r="K25" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="73">
@@ -2280,7 +2308,7 @@
       </c>
       <c r="K28" s="76"/>
     </row>
-    <row r="29" spans="1:25" ht="162" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="162" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47">
         <v>4</v>
       </c>
@@ -2374,7 +2402,7 @@
       </c>
       <c r="K34" s="46"/>
     </row>
-    <row r="35" spans="1:11" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="47">
         <v>5</v>
       </c>
@@ -2823,11 +2851,6 @@
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="SF-2"/>
-      </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="33">
@@ -2866,6 +2889,6 @@
     <mergeCell ref="C11:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="33" fitToHeight="10" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="10" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>